--- a/Docs/计分组/2015-THU-计分表.xlsx
+++ b/Docs/计分组/2015-THU-计分表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git work\2015-Tsinghua-XLP-CDT\Docs\计分组\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="13740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="1" r:id="rId1"/>
     <sheet name="day2（有重分组）" sheetId="2" r:id="rId2"/>
     <sheet name="day3（有重分组）" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表4" sheetId="4" r:id="rId4"/>
+    <sheet name="day4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -267,6 +272,10 @@
   </si>
   <si>
     <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天总分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -377,16 +386,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -712,28 +729,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,188 +790,191 @@
       <c r="M1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -973,26 +993,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,188 +1046,191 @@
       <c r="K1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1226,23 +1249,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,188 +1290,191 @@
       <c r="H1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1467,23 +1493,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,188 +1537,191 @@
       <c r="I1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>

--- a/Docs/计分组/2015-THU-计分表.xlsx
+++ b/Docs/计分组/2015-THU-计分表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git work\2015-Tsinghua-XLP-CDT\Docs\计分组\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18495" windowHeight="13740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="1" r:id="rId1"/>
@@ -171,15 +166,95 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>讨论（7/5/3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次汇报 15/3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>讨论（5/5/2)</t>
+    <t>收尾（2/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>git game（8）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 小组（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到场（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队组建（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次汇报（15/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队组建（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>git小组（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次汇报（15/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次汇报（20/5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次汇报（25/5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七次汇报（25/5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩排（5/5）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布会整体（10）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各小组展示（20）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天总分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（3/3/7)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -187,95 +262,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>收尾（2/3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外加分扣分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>git game（8）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>git 小组（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务发布（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>到场（2）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队组建（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三次汇报（15/3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队组建（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>git小组（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（5/5/2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四次汇报（15/3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外加分扣分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五次汇报（20/5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务发布（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（5/5/2/2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六次汇报（25/5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七次汇报（25/5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩排（5/5）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布会整体（10）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各小组展示（20）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外加分扣分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天总分</t>
+    <t>讨论（3/3/7)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（3/3/7/2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（5/3/7)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +364,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,16 +378,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -731,250 +737,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="30">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -995,242 +1003,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1252,229 +1263,232 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1495,233 +1509,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>

--- a/Docs/计分组/2015-THU-计分表.xlsx
+++ b/Docs/计分组/2015-THU-计分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -158,14 +158,6 @@
     <t>施孝儒</t>
   </si>
   <si>
-    <t>logo（5/3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开场（6）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次汇报 15/3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -178,15 +170,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>git 小组（3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>到场（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七次汇报（25/5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩排（5/5）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布会整体（10）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>各小组展示（20）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外加分扣分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天总分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（3/3/7)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队组建（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开场（4）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo（3/2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（5/3/20)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>git game（8）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>git 小组（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务发布（3）</t>
+    <t>第二次汇报（15/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（2）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -194,19 +246,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>团队组建（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第三次汇报（15/3)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>团队组建（3）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>git小组（3）</t>
+    <t>团队组建（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>git小组（2）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -214,15 +262,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>额外加分扣分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五次汇报（20/5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务发布（3）</t>
+    <t>到场（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（5/3/20/2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -230,47 +278,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第七次汇报（25/5)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩排（5/5）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布会整体（10）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>各小组展示（20）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外加分扣分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天总分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（3/3/7)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次汇报（15/3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（3/3/7)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（3/3/7/2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论（5/3/7)</t>
+    <t>第五次汇报（20/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发布（2）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -763,43 +775,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1004,7 +1016,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1017,7 +1029,7 @@
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
@@ -1028,37 +1040,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1263,7 +1275,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1279,33 +1291,33 @@
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1509,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1519,7 +1531,7 @@
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
@@ -1532,31 +1544,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10">

--- a/Docs/计分组/2015-THU-计分表.xlsx
+++ b/Docs/计分组/2015-THU-计分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18500" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="day 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>讨论（3/3/7)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>团队组建（2）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -283,6 +279,21 @@
   </si>
   <si>
     <t>任务发布（2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（5/3)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注评论</t>
+  </si>
+  <si>
+    <t>备注评论</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论（5/3)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +354,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -367,7 +386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -375,8 +394,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,14 +423,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,259 +779,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="G2" s="9"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="G3" s="9"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="G4" s="9"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="G5" s="9"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="G6" s="9"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="G7" s="9"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="G8" s="9"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="G9" s="9"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="G10" s="9"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="G11" s="9"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="G12" s="9"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="G13" s="9"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="G14" s="9"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="G15" s="9"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="G16" s="9"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="G17" s="9"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="G18" s="9"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="G19" s="9"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="G20" s="9"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="G21" s="9"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="G22" s="9"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="G23" s="9"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="G24" s="9"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="G25" s="9"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="G26" s="9"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="G27" s="9"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="G28" s="9"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="G29" s="9"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="G30" s="9"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="G31" s="9"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="G32" s="9"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="G33" s="9"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="G34" s="9"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="G35" s="9"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="G36" s="9"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="G37" s="9"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="G38" s="9"/>
+      <c r="L38" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L24"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1015,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1040,28 +1173,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>39</v>
@@ -1296,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>39</v>
@@ -1521,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1547,13 +1680,13 @@
         <v>42</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>45</v>
